--- a/Development/hardware/4g_module.xlsx
+++ b/Development/hardware/4g_module.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13005" activeTab="3"/>
+    <workbookView windowHeight="18000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="芯片对比" sheetId="2" r:id="rId1"/>
-    <sheet name="成本" sheetId="3" r:id="rId2"/>
-    <sheet name="硬件信息" sheetId="4" r:id="rId3"/>
-    <sheet name="产品规格" sheetId="5" r:id="rId4"/>
+    <sheet name="硬件信息" sheetId="4" r:id="rId2"/>
+    <sheet name="产品规格" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="114">
   <si>
     <t>选型</t>
   </si>
@@ -130,7 +129,7 @@
     <t>C1-1100 C1-1110</t>
   </si>
   <si>
-    <t>WEB 烧写固件</t>
+    <t>SSH 手工烧写</t>
   </si>
   <si>
     <t>admin/admin</t>
@@ -139,7 +138,7 @@
     <t>192.168.8.1</t>
   </si>
   <si>
-    <t>sysupgrade</t>
+    <t>sysupgrade -F -n</t>
   </si>
   <si>
     <t>C2</t>
@@ -154,9 +153,6 @@
     <t>C1-1200 C1-1210</t>
   </si>
   <si>
-    <t>WEB开启ssh，脚本少些固件</t>
-  </si>
-  <si>
     <t>192.168.10.1</t>
   </si>
   <si>
@@ -175,7 +171,7 @@
     <t>C1-1300 C1-1310</t>
   </si>
   <si>
-    <t>SSH</t>
+    <t>WEB开启ssh，脚本烧写固件</t>
   </si>
   <si>
     <t>root/rootelink</t>
@@ -244,6 +240,9 @@
     <t>电源接口</t>
   </si>
   <si>
+    <t>RTC(时钟芯片)</t>
+  </si>
+  <si>
     <t>价格（单台）</t>
   </si>
   <si>
@@ -337,7 +336,7 @@
     <t>C1-1310</t>
   </si>
   <si>
-    <t>300起批（否则收取3000定制费)</t>
+    <t>300台起批（否则收取3000定制费)</t>
   </si>
   <si>
     <t>C3-5系列</t>
@@ -356,6 +355,9 @@
   </si>
   <si>
     <t>C1-1360</t>
+  </si>
+  <si>
+    <t>不限制数量</t>
   </si>
 </sst>
 </file>
@@ -364,29 +366,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -406,17 +393,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,11 +417,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -454,70 +507,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -536,150 +538,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -687,36 +719,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,8 +735,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,6 +776,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,36 +819,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -803,177 +829,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1502,38 +1504,124 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A2:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="true"/>
+    <col min="2" max="4" width="26.5" customWidth="true"/>
+    <col min="5" max="5" width="27" customWidth="true"/>
+    <col min="6" max="6" width="13.75" customWidth="true"/>
+    <col min="7" max="7" width="12.125" customWidth="true"/>
+    <col min="8" max="8" width="40.125" customWidth="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
-        <v>208</v>
-      </c>
-      <c r="B1">
-        <f>A1*1.11</f>
-        <v>230.88</v>
-      </c>
-      <c r="C1">
-        <f>B1+58</f>
-        <v>288.88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>182</v>
-      </c>
-      <c r="B2">
-        <f>A2*1.11</f>
-        <v>202.02</v>
-      </c>
-      <c r="C2">
-        <f>B2+58</f>
-        <v>260.02</v>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1545,133 +1633,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="11.25" customWidth="true"/>
-    <col min="2" max="4" width="26.5" customWidth="true"/>
-    <col min="5" max="5" width="13.25" customWidth="true"/>
-    <col min="6" max="6" width="12.125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K19" sqref="K19"/>
+      <selection pane="topRight" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1686,75 +1653,78 @@
     <col min="9" max="9" width="12.5" customWidth="true"/>
     <col min="10" max="11" width="10.75" customWidth="true"/>
     <col min="17" max="17" width="13.25" customWidth="true"/>
-    <col min="18" max="18" width="20.375" customWidth="true"/>
-    <col min="19" max="19" width="12.875" customWidth="true"/>
-    <col min="20" max="20" width="17.125" customWidth="true"/>
-    <col min="21" max="21" width="29.75" customWidth="true"/>
+    <col min="18" max="19" width="20.375" customWidth="true"/>
+    <col min="20" max="20" width="12.875" customWidth="true"/>
+    <col min="21" max="21" width="17.125" customWidth="true"/>
+    <col min="22" max="22" width="29.75" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21">
+    <row r="1" spans="2:22">
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>61</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>64</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>68</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>70</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>71</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>73</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>74</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>75</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>76</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -1809,25 +1779,28 @@
       <c r="R2" t="s">
         <v>88</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2">
         <v>179</v>
       </c>
-      <c r="T2">
-        <f>S2*1.03</f>
+      <c r="U2">
+        <f>T2*1.03</f>
         <v>184.37</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>89</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>279</v>
       </c>
-      <c r="W2">
-        <f>V2*1.03</f>
+      <c r="X2">
+        <f>W2*1.03</f>
         <v>287.37</v>
       </c>
     </row>
-    <row r="3" spans="3:24">
+    <row r="3" spans="3:25">
       <c r="C3" s="1" t="s">
         <v>90</v>
       </c>
@@ -1876,20 +1849,23 @@
       <c r="R3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1">
-        <f>S3*1.03</f>
+      <c r="S3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1">
+        <f>T3*1.03</f>
         <v>0</v>
       </c>
-      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="1">
-        <f>V3*1.03</f>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1">
+        <f>W3*1.03</f>
         <v>0</v>
       </c>
-      <c r="X3" s="1"/>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -1944,25 +1920,28 @@
       <c r="R4" t="s">
         <v>97</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4">
         <v>208</v>
       </c>
-      <c r="T4">
-        <f t="shared" ref="T3:T8" si="0">S4*1.11</f>
+      <c r="U4">
+        <f>T4*1.11</f>
         <v>230.88</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>98</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>308</v>
       </c>
-      <c r="W4">
-        <f>V4*1.11</f>
+      <c r="X4">
+        <f>W4*1.11</f>
         <v>341.88</v>
       </c>
     </row>
-    <row r="5" spans="3:23">
+    <row r="5" spans="3:24">
       <c r="C5" t="s">
         <v>99</v>
       </c>
@@ -2011,30 +1990,33 @@
       <c r="R5" t="s">
         <v>97</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T5">
         <v>213</v>
       </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
+      <c r="U5">
+        <f>T5*1.11</f>
         <v>236.43</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>98</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>313</v>
       </c>
-      <c r="W5">
-        <f>V5*1.11</f>
+      <c r="X5">
+        <f>W5*1.11</f>
         <v>347.43</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>102</v>
@@ -2084,17 +2066,17 @@
       <c r="R6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="S6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-    </row>
-    <row r="7" spans="3:21">
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="3:22">
       <c r="C7" t="s">
         <v>104</v>
       </c>
@@ -2143,20 +2125,22 @@
       <c r="R7" t="s">
         <v>97</v>
       </c>
-      <c r="T7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="S7" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7">
+        <v>400</v>
+      </c>
+      <c r="V7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>108</v>
@@ -2206,17 +2190,17 @@
       <c r="R8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="S8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-    </row>
-    <row r="9" spans="3:18">
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="3:22">
       <c r="C9" t="s">
         <v>111</v>
       </c>
@@ -2264,6 +2248,15 @@
       </c>
       <c r="R9" t="s">
         <v>110</v>
+      </c>
+      <c r="S9" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9">
+        <v>450</v>
+      </c>
+      <c r="V9" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
